--- a/data/trans_bre/P27A_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27A_7-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,27 +625,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -647,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,69; -0,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>530,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 10,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 7,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,28; 616,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>242,13%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>168,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>296,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 12,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 11,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 12,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 1324,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 661,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 1472,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>490,58%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>210,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>135,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 12,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 12,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,35; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1490,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 733,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>481,65%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>438,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 19,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 12,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 19,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1066,6 +1192,16 @@
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>284,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>214,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>141,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,25; 801,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,03; 533,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,63; 381,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P27A_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27A_7-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +747,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr"/>
+      <c r="I13" s="6" t="inlineStr"/>
+      <c r="J13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +867,177 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr"/>
+      <c r="H16" s="6" t="inlineStr"/>
+      <c r="I16" s="6" t="inlineStr"/>
+      <c r="J16" s="6" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="inlineStr"/>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="inlineStr"/>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr"/>
+      <c r="I19" s="6" t="inlineStr"/>
+      <c r="J19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="inlineStr"/>
+      <c r="H22" s="6" t="inlineStr"/>
+      <c r="I22" s="6" t="inlineStr"/>
+      <c r="J22" s="6" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr"/>
+      <c r="D23" s="5" t="inlineStr"/>
+      <c r="E23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="inlineStr"/>
+      <c r="G23" s="6" t="inlineStr"/>
+      <c r="H23" s="6" t="inlineStr"/>
+      <c r="I23" s="6" t="inlineStr"/>
+      <c r="J23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="inlineStr"/>
+      <c r="G24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="inlineStr"/>
+      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1045,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
